--- a/docs/Plantillas/Plantilla_Rpto_Operaciones_InformeConsolidadoCombustible.xlsx
+++ b/docs/Plantillas/Plantilla_Rpto_Operaciones_InformeConsolidadoCombustible.xlsx
@@ -448,7 +448,7 @@
   <dimension ref="B2:J127"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:H4"/>
+      <selection activeCell="C4" sqref="C4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -465,22 +465,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C2" s="11"/>
+      <c r="C2" s="15"/>
       <c r="D2" s="15"/>
       <c r="E2" s="15"/>
       <c r="F2" s="15"/>
       <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
+      <c r="H2" s="11"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C4" s="5"/>
-      <c r="D4" s="14" t="s">
+      <c r="C4" s="14" t="s">
         <v>8</v>
       </c>
+      <c r="D4" s="14"/>
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
+      <c r="H4" s="5"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="13"/>
@@ -1711,8 +1711,8 @@
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C2:G2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
